--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-mortality-tracker/source-data/britain/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12C0FE-7131-AC4C-9B3C-1C56070B6725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="28160" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -128,6 +129,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,11 +399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="G277" sqref="G277"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E277" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15162,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R280" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R281" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -16375,6 +16382,49 @@
       </c>
       <c r="D281">
         <v>19</v>
+      </c>
+      <c r="E281">
+        <v>12657</v>
+      </c>
+      <c r="F281">
+        <v>769</v>
+      </c>
+      <c r="G281">
+        <v>1790</v>
+      </c>
+      <c r="H281">
+        <v>1328</v>
+      </c>
+      <c r="I281">
+        <v>1094</v>
+      </c>
+      <c r="J281">
+        <v>1326</v>
+      </c>
+      <c r="K281">
+        <v>1321</v>
+      </c>
+      <c r="L281">
+        <v>1213</v>
+      </c>
+      <c r="M281">
+        <v>1887</v>
+      </c>
+      <c r="N281">
+        <v>1218</v>
+      </c>
+      <c r="O281">
+        <v>692</v>
+      </c>
+      <c r="P281">
+        <v>1434</v>
+      </c>
+      <c r="Q281">
+        <v>336</v>
+      </c>
+      <c r="R281">
+        <f t="shared" si="4"/>
+        <v>14427</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.2">

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12C0FE-7131-AC4C-9B3C-1C56070B6725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF430E-22EF-C941-B2DE-05ED111FD366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="28160" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="460" windowWidth="19140" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E277" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L274" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C279" sqref="C279"/>
+      <selection pane="bottomRight" activeCell="N279" sqref="N279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R281" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R282" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -16360,14 +16360,14 @@
         <v>929</v>
       </c>
       <c r="P280">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="Q280">
         <v>427</v>
       </c>
       <c r="R280">
         <f t="shared" si="4"/>
-        <v>20053</v>
+        <v>20059</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.2">
@@ -16417,14 +16417,14 @@
         <v>692</v>
       </c>
       <c r="P281">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="Q281">
         <v>336</v>
       </c>
       <c r="R281">
         <f t="shared" si="4"/>
-        <v>14427</v>
+        <v>14428</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.2">
@@ -16439,6 +16439,49 @@
       </c>
       <c r="D282">
         <v>20</v>
+      </c>
+      <c r="E282">
+        <v>14573</v>
+      </c>
+      <c r="F282">
+        <v>845</v>
+      </c>
+      <c r="G282">
+        <v>1992</v>
+      </c>
+      <c r="H282">
+        <v>1589</v>
+      </c>
+      <c r="I282">
+        <v>1283</v>
+      </c>
+      <c r="J282">
+        <v>1502</v>
+      </c>
+      <c r="K282">
+        <v>1543</v>
+      </c>
+      <c r="L282">
+        <v>1329</v>
+      </c>
+      <c r="M282">
+        <v>2251</v>
+      </c>
+      <c r="N282">
+        <v>1449</v>
+      </c>
+      <c r="O282">
+        <v>772</v>
+      </c>
+      <c r="P282">
+        <v>1415</v>
+      </c>
+      <c r="Q282">
+        <v>396</v>
+      </c>
+      <c r="R282">
+        <f t="shared" si="4"/>
+        <v>16384</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.2">

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF430E-22EF-C941-B2DE-05ED111FD366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7CBEF2-3D45-8942-AD1F-79BACB8BFF70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9240" yWindow="460" windowWidth="19140" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,15 +403,15 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L274" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N279" sqref="N279"/>
+      <selection pane="bottomRight" activeCell="Q274" sqref="Q274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -524,7 +524,7 @@
         <v>13491</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -581,7 +581,7 @@
         <v>17755</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -638,7 +638,7 @@
         <v>16958</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -695,7 +695,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -752,7 +752,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>13672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -866,7 +866,7 @@
         <v>13494</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -923,7 +923,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -980,7 +980,7 @@
         <v>13193</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>13122</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>12467</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>12079</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>11965</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>10454</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>11424</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>13159</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>11577</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>10235</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>11609</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>11398</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>10927</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>10537</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>10017</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>10086</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>9864</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>10095</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>10427</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>10339</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>9070</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>10559</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>10370</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>10817</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>10702</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>10838</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>10973</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>10891</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>11401</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>11263</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>11227</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>11155</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>11774</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>11701</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>12091</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>8699</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>14480</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>13154</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>13060</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>12571</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>12697</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>12016</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>12718</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>12733</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>12489</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>10983</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>11738</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>13060</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>12757</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>12310</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>11795</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>11222</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>11013</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>9192</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>10611</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>10526</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>10412</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>10672</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>10433</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>10439</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10637</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>9226</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>10681</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>10183</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>10671</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>11016</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>11463</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>11803</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>12064</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>11901</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>12733</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>12076</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>13137</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>9335</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>13607</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>15528</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>15231</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>14461</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>14188</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>13805</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>13212</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>13330</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>12819</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>12089</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>11833</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>11453</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>11305</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>9761</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>12356</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>10372</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>12114</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>11718</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>11431</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>9603</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>10930</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>10565</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>10643</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>10426</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>10147</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>10239</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>9372</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>10781</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>10875</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>11027</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>11357</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>11389</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>11152</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>11366</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>11767</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>11773</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>12102</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>12046</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>12342</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>14308</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>9920</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>14685</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>17430</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>16355</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>15971</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>15087</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>13925</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>13753</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>12190</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>14367</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>13397</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>11310</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>12272</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>12639</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>11596</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>9821</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>11386</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>10974</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>9397</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>11259</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>10535</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>10514</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>10565</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>10467</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>10353</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>10542</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>10091</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>9046</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>10680</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>10498</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>10463</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>10869</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>11177</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>10885</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>10866</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>11588</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>11552</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>11289</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>11392</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>11687</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>12078</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>12649</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>12407</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>14487</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>13545</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>13283</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>12799</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>13222</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>13347</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>12877</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>12479</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>12396</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>12018</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>11797</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>11260</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>11445</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>11661</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>10243</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>12695</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>10361</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>11717</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>11653</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>9534</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>11461</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>10754</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>10807</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>10824</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>10512</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>10422</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>10406</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>10405</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>10279</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>9478</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>10918</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>10892</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>10792</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>10954</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>11113</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>11403</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>11625</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>11415</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>11567</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>12177</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>12146</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>12472</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>12455</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -15169,11 +15169,11 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R282" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R284" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>12853</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>13768</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>16020</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>14723</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>13429</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>13123</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>12534</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>12412</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>12334</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>12414</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>12499</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>12112</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>12507</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>18565</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>20929</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>24691</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>24303</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>20059</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>14428</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -16474,17 +16474,17 @@
         <v>772</v>
       </c>
       <c r="P282">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="Q282">
         <v>396</v>
       </c>
       <c r="R282">
         <f t="shared" si="4"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16390</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -16497,8 +16497,51 @@
       <c r="D283">
         <v>21</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E283">
+        <v>12288</v>
+      </c>
+      <c r="F283">
+        <v>718</v>
+      </c>
+      <c r="G283">
+        <v>1636</v>
+      </c>
+      <c r="H283">
+        <v>1236</v>
+      </c>
+      <c r="I283">
+        <v>1041</v>
+      </c>
+      <c r="J283">
+        <v>1319</v>
+      </c>
+      <c r="K283">
+        <v>1397</v>
+      </c>
+      <c r="L283">
+        <v>1125</v>
+      </c>
+      <c r="M283">
+        <v>1937</v>
+      </c>
+      <c r="N283">
+        <v>1177</v>
+      </c>
+      <c r="O283">
+        <v>692</v>
+      </c>
+      <c r="P283">
+        <v>1226</v>
+      </c>
+      <c r="Q283">
+        <v>325</v>
+      </c>
+      <c r="R283">
+        <f t="shared" si="4"/>
+        <v>13839</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -16511,8 +16554,51 @@
       <c r="D284">
         <v>22</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E284">
+        <v>9824</v>
+      </c>
+      <c r="F284">
+        <v>550</v>
+      </c>
+      <c r="G284">
+        <v>1337</v>
+      </c>
+      <c r="H284">
+        <v>1046</v>
+      </c>
+      <c r="I284">
+        <v>863</v>
+      </c>
+      <c r="J284">
+        <v>970</v>
+      </c>
+      <c r="K284">
+        <v>1095</v>
+      </c>
+      <c r="L284">
+        <v>841</v>
+      </c>
+      <c r="M284">
+        <v>1515</v>
+      </c>
+      <c r="N284">
+        <v>1011</v>
+      </c>
+      <c r="O284">
+        <v>587</v>
+      </c>
+      <c r="P284">
+        <v>1128</v>
+      </c>
+      <c r="Q284">
+        <v>316</v>
+      </c>
+      <c r="R284">
+        <f t="shared" si="4"/>
+        <v>11268</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -16526,7 +16612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -16540,7 +16626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -16554,7 +16640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -16568,7 +16654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16582,7 +16668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16596,7 +16682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16610,7 +16696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -16624,7 +16710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -16638,7 +16724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -16652,7 +16738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -16666,7 +16752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -16680,7 +16766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -16694,7 +16780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -16708,7 +16794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -16722,7 +16808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -16736,7 +16822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -16750,7 +16836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -16764,7 +16850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -16778,7 +16864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -16792,7 +16878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -16806,7 +16892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -16820,7 +16906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -16834,7 +16920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -16848,7 +16934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -16862,7 +16948,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -16876,7 +16962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -16890,7 +16976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -16904,7 +16990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -16918,7 +17004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -16932,7 +17018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7CBEF2-3D45-8942-AD1F-79BACB8BFF70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23117F-0D83-9F4C-B3E0-DA0E1A1C9EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="460" windowWidth="19140" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="19140" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K264" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q274" sqref="Q274"/>
+      <selection pane="bottomRight" activeCell="O277" sqref="O277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R284" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R285" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -16610,6 +16610,49 @@
       </c>
       <c r="D285">
         <v>23</v>
+      </c>
+      <c r="E285">
+        <v>10709</v>
+      </c>
+      <c r="F285">
+        <v>576</v>
+      </c>
+      <c r="G285">
+        <v>1478</v>
+      </c>
+      <c r="H285">
+        <v>1090</v>
+      </c>
+      <c r="I285">
+        <v>931</v>
+      </c>
+      <c r="J285">
+        <v>1172</v>
+      </c>
+      <c r="K285">
+        <v>1131</v>
+      </c>
+      <c r="L285">
+        <v>891</v>
+      </c>
+      <c r="M285">
+        <v>1610</v>
+      </c>
+      <c r="N285">
+        <v>1116</v>
+      </c>
+      <c r="O285">
+        <v>700</v>
+      </c>
+      <c r="P285">
+        <v>1093</v>
+      </c>
+      <c r="Q285">
+        <v>304</v>
+      </c>
+      <c r="R285">
+        <f t="shared" si="4"/>
+        <v>12106</v>
       </c>
     </row>
     <row r="286" spans="1:18">

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23117F-0D83-9F4C-B3E0-DA0E1A1C9EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4908250A-C4EA-BD4B-9BB2-C7E185DF0934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="19140" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="640" windowWidth="14960" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J264" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O277" sqref="O277"/>
+      <selection pane="bottomRight" activeCell="O267" sqref="O267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R285" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R286" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -16667,6 +16667,49 @@
       </c>
       <c r="D286">
         <v>24</v>
+      </c>
+      <c r="E286">
+        <v>9976</v>
+      </c>
+      <c r="F286">
+        <v>478</v>
+      </c>
+      <c r="G286">
+        <v>1374</v>
+      </c>
+      <c r="H286">
+        <v>980</v>
+      </c>
+      <c r="I286">
+        <v>967</v>
+      </c>
+      <c r="J286">
+        <v>1096</v>
+      </c>
+      <c r="K286">
+        <v>1048</v>
+      </c>
+      <c r="L286">
+        <v>883</v>
+      </c>
+      <c r="M286">
+        <v>1530</v>
+      </c>
+      <c r="N286">
+        <v>1035</v>
+      </c>
+      <c r="O286">
+        <v>574</v>
+      </c>
+      <c r="P286">
+        <v>1058</v>
+      </c>
+      <c r="Q286">
+        <v>292</v>
+      </c>
+      <c r="R286">
+        <f t="shared" si="4"/>
+        <v>11326</v>
       </c>
     </row>
     <row r="287" spans="1:18">

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4908250A-C4EA-BD4B-9BB2-C7E185DF0934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69145A45-29E1-504A-A624-6560F1420289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="640" windowWidth="14960" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="460" windowWidth="14960" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M264" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O267" sqref="O267"/>
+      <selection pane="bottomRight" activeCell="R283" sqref="R283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R286" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R288" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -16702,14 +16702,14 @@
         <v>574</v>
       </c>
       <c r="P286">
-        <v>1058</v>
+        <v>1034</v>
       </c>
       <c r="Q286">
         <v>292</v>
       </c>
       <c r="R286">
         <f t="shared" si="4"/>
-        <v>11326</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -16725,6 +16725,49 @@
       <c r="D287">
         <v>25</v>
       </c>
+      <c r="E287">
+        <v>9939</v>
+      </c>
+      <c r="F287">
+        <v>498</v>
+      </c>
+      <c r="G287">
+        <v>1234</v>
+      </c>
+      <c r="H287">
+        <v>952</v>
+      </c>
+      <c r="I287">
+        <v>835</v>
+      </c>
+      <c r="J287">
+        <v>973</v>
+      </c>
+      <c r="K287">
+        <v>927</v>
+      </c>
+      <c r="L287">
+        <v>896</v>
+      </c>
+      <c r="M287">
+        <v>1411</v>
+      </c>
+      <c r="N287">
+        <v>990</v>
+      </c>
+      <c r="O287">
+        <v>617</v>
+      </c>
+      <c r="P287">
+        <v>1065</v>
+      </c>
+      <c r="Q287">
+        <v>290</v>
+      </c>
+      <c r="R287">
+        <f t="shared" si="4"/>
+        <v>11294</v>
+      </c>
     </row>
     <row r="288" spans="1:18">
       <c r="A288" t="s">
@@ -16738,6 +16781,49 @@
       </c>
       <c r="D288">
         <v>26</v>
+      </c>
+      <c r="E288">
+        <v>8979</v>
+      </c>
+      <c r="F288">
+        <v>485</v>
+      </c>
+      <c r="G288">
+        <v>1300</v>
+      </c>
+      <c r="H288">
+        <v>922</v>
+      </c>
+      <c r="I288">
+        <v>800</v>
+      </c>
+      <c r="J288">
+        <v>946</v>
+      </c>
+      <c r="K288">
+        <v>880</v>
+      </c>
+      <c r="L288">
+        <v>791</v>
+      </c>
+      <c r="M288">
+        <v>1311</v>
+      </c>
+      <c r="N288">
+        <v>979</v>
+      </c>
+      <c r="O288">
+        <v>552</v>
+      </c>
+      <c r="P288">
+        <v>1008</v>
+      </c>
+      <c r="Q288">
+        <v>295</v>
+      </c>
+      <c r="R288">
+        <f t="shared" si="4"/>
+        <v>10282</v>
       </c>
     </row>
     <row r="289" spans="1:4">

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69145A45-29E1-504A-A624-6560F1420289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80637097-4121-9C44-8EF4-138F22A02923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="460" windowWidth="14960" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10060" yWindow="760" windowWidth="18940" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R283" sqref="R283"/>
+      <selection pane="bottomRight" activeCell="Q283" sqref="Q283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R288" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R292" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -16826,7 +16826,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:18">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16839,8 +16839,51 @@
       <c r="D289">
         <v>27</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289">
+        <v>9140</v>
+      </c>
+      <c r="F289">
+        <v>515</v>
+      </c>
+      <c r="G289">
+        <v>1225</v>
+      </c>
+      <c r="H289">
+        <v>875</v>
+      </c>
+      <c r="I289">
+        <v>827</v>
+      </c>
+      <c r="J289">
+        <v>949</v>
+      </c>
+      <c r="K289">
+        <v>922</v>
+      </c>
+      <c r="L289">
+        <v>837</v>
+      </c>
+      <c r="M289">
+        <v>1454</v>
+      </c>
+      <c r="N289">
+        <v>938</v>
+      </c>
+      <c r="O289">
+        <v>584</v>
+      </c>
+      <c r="P289">
+        <v>983</v>
+      </c>
+      <c r="Q289">
+        <v>289</v>
+      </c>
+      <c r="R289">
+        <f t="shared" si="4"/>
+        <v>10412</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16853,8 +16896,51 @@
       <c r="D290">
         <v>28</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290">
+        <v>8690</v>
+      </c>
+      <c r="F290">
+        <v>468</v>
+      </c>
+      <c r="G290">
+        <v>1154</v>
+      </c>
+      <c r="H290">
+        <v>848</v>
+      </c>
+      <c r="I290">
+        <v>771</v>
+      </c>
+      <c r="J290">
+        <v>902</v>
+      </c>
+      <c r="K290">
+        <v>999</v>
+      </c>
+      <c r="L290">
+        <v>803</v>
+      </c>
+      <c r="M290">
+        <v>1228</v>
+      </c>
+      <c r="N290">
+        <v>930</v>
+      </c>
+      <c r="O290">
+        <v>572</v>
+      </c>
+      <c r="P290">
+        <v>976</v>
+      </c>
+      <c r="Q290">
+        <v>275</v>
+      </c>
+      <c r="R290">
+        <f t="shared" si="4"/>
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16867,8 +16953,51 @@
       <c r="D291">
         <v>29</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291">
+        <v>8823</v>
+      </c>
+      <c r="F291">
+        <v>445</v>
+      </c>
+      <c r="G291">
+        <v>1159</v>
+      </c>
+      <c r="H291">
+        <v>843</v>
+      </c>
+      <c r="I291">
+        <v>816</v>
+      </c>
+      <c r="J291">
+        <v>956</v>
+      </c>
+      <c r="K291">
+        <v>945</v>
+      </c>
+      <c r="L291">
+        <v>806</v>
+      </c>
+      <c r="M291">
+        <v>1339</v>
+      </c>
+      <c r="N291">
+        <v>953</v>
+      </c>
+      <c r="O291">
+        <v>550</v>
+      </c>
+      <c r="P291">
+        <v>1033</v>
+      </c>
+      <c r="Q291">
+        <v>240</v>
+      </c>
+      <c r="R291">
+        <f t="shared" si="4"/>
+        <v>10096</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -16881,8 +17010,51 @@
       <c r="D292">
         <v>30</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292">
+        <v>8891</v>
+      </c>
+      <c r="F292">
+        <v>493</v>
+      </c>
+      <c r="G292">
+        <v>1197</v>
+      </c>
+      <c r="H292">
+        <v>817</v>
+      </c>
+      <c r="I292">
+        <v>798</v>
+      </c>
+      <c r="J292">
+        <v>964</v>
+      </c>
+      <c r="K292">
+        <v>951</v>
+      </c>
+      <c r="L292">
+        <v>816</v>
+      </c>
+      <c r="M292">
+        <v>1340</v>
+      </c>
+      <c r="N292">
+        <v>941</v>
+      </c>
+      <c r="O292">
+        <v>565</v>
+      </c>
+      <c r="P292">
+        <v>953</v>
+      </c>
+      <c r="Q292">
+        <v>307</v>
+      </c>
+      <c r="R292">
+        <f t="shared" si="4"/>
+        <v>10151</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -16896,7 +17068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:18">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -16910,7 +17082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:18">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -16924,7 +17096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:18">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -16938,7 +17110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:18">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -16952,7 +17124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:18">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -16966,7 +17138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:18">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -16980,7 +17152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:18">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -16994,7 +17166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:18">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -17008,7 +17180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:18">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -17022,7 +17194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:18">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -17036,7 +17208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:18">
       <c r="A304" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80637097-4121-9C44-8EF4-138F22A02923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB808541-6A21-B047-8C59-BF3502A9333D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="760" windowWidth="18940" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5060" yWindow="600" windowWidth="18940" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="K267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q283" sqref="Q283"/>
+      <selection pane="bottomRight" activeCell="M281" sqref="M281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R292" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R295" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -17044,14 +17044,14 @@
         <v>565</v>
       </c>
       <c r="P292">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="Q292">
         <v>307</v>
       </c>
       <c r="R292">
         <f t="shared" si="4"/>
-        <v>10151</v>
+        <v>10159</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -17067,6 +17067,49 @@
       <c r="D293">
         <v>31</v>
       </c>
+      <c r="E293">
+        <v>8946</v>
+      </c>
+      <c r="F293">
+        <v>507</v>
+      </c>
+      <c r="G293">
+        <v>1272</v>
+      </c>
+      <c r="H293">
+        <v>837</v>
+      </c>
+      <c r="I293">
+        <v>729</v>
+      </c>
+      <c r="J293">
+        <v>902</v>
+      </c>
+      <c r="K293">
+        <v>949</v>
+      </c>
+      <c r="L293">
+        <v>773</v>
+      </c>
+      <c r="M293">
+        <v>1447</v>
+      </c>
+      <c r="N293">
+        <v>988</v>
+      </c>
+      <c r="O293">
+        <v>531</v>
+      </c>
+      <c r="P293">
+        <v>1043</v>
+      </c>
+      <c r="Q293">
+        <v>273</v>
+      </c>
+      <c r="R293">
+        <f t="shared" si="4"/>
+        <v>10262</v>
+      </c>
     </row>
     <row r="294" spans="1:18">
       <c r="A294" t="s">
@@ -17081,6 +17124,49 @@
       <c r="D294">
         <v>32</v>
       </c>
+      <c r="E294">
+        <v>8945</v>
+      </c>
+      <c r="F294">
+        <v>486</v>
+      </c>
+      <c r="G294">
+        <v>1211</v>
+      </c>
+      <c r="H294">
+        <v>851</v>
+      </c>
+      <c r="I294">
+        <v>798</v>
+      </c>
+      <c r="J294">
+        <v>933</v>
+      </c>
+      <c r="K294">
+        <v>955</v>
+      </c>
+      <c r="L294">
+        <v>832</v>
+      </c>
+      <c r="M294">
+        <v>1370</v>
+      </c>
+      <c r="N294">
+        <v>929</v>
+      </c>
+      <c r="O294">
+        <v>563</v>
+      </c>
+      <c r="P294">
+        <v>1011</v>
+      </c>
+      <c r="Q294">
+        <v>280</v>
+      </c>
+      <c r="R294">
+        <f t="shared" si="4"/>
+        <v>10236</v>
+      </c>
     </row>
     <row r="295" spans="1:18">
       <c r="A295" t="s">
@@ -17094,6 +17180,49 @@
       </c>
       <c r="D295">
         <v>33</v>
+      </c>
+      <c r="E295">
+        <v>9392</v>
+      </c>
+      <c r="F295">
+        <v>520</v>
+      </c>
+      <c r="G295">
+        <v>1304</v>
+      </c>
+      <c r="H295">
+        <v>853</v>
+      </c>
+      <c r="I295">
+        <v>829</v>
+      </c>
+      <c r="J295">
+        <v>923</v>
+      </c>
+      <c r="K295">
+        <v>1006</v>
+      </c>
+      <c r="L295">
+        <v>928</v>
+      </c>
+      <c r="M295">
+        <v>1395</v>
+      </c>
+      <c r="N295">
+        <v>1009</v>
+      </c>
+      <c r="O295">
+        <v>617</v>
+      </c>
+      <c r="P295">
+        <v>922</v>
+      </c>
+      <c r="Q295">
+        <v>278</v>
+      </c>
+      <c r="R295">
+        <f t="shared" si="4"/>
+        <v>10592</v>
       </c>
     </row>
     <row r="296" spans="1:18">

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB808541-6A21-B047-8C59-BF3502A9333D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B342E-3C43-4444-A84A-08D1360DBE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5060" yWindow="600" windowWidth="18940" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,15 +403,15 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M281" sqref="M281"/>
+      <selection pane="bottomRight" activeCell="N294" sqref="N294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -524,7 +524,7 @@
         <v>13491</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -581,7 +581,7 @@
         <v>17755</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -638,7 +638,7 @@
         <v>16958</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -695,7 +695,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -752,7 +752,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>13672</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -866,7 +866,7 @@
         <v>13494</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -923,7 +923,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -980,7 +980,7 @@
         <v>13193</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>13122</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>12467</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>12079</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>11965</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>10454</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>11424</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>13159</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>11577</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>10235</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>11609</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>11398</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>10927</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>10537</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>10017</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>10086</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>9864</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>10095</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>10427</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>10339</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>9070</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>10559</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>10370</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>10817</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>10702</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>10838</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>10973</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>10891</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>11401</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>11263</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>11227</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>11155</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>11774</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>11701</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>12091</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>8699</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>14480</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>13154</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>13060</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>12571</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>12697</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>12016</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>12718</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>12733</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>12489</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>10983</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>11738</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>13060</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>12757</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>12310</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>11795</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>11222</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>11013</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>9192</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>10611</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>10526</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>10412</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>10672</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>10433</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>10439</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10637</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>9226</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>10681</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>10183</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>10671</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>11016</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>11463</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>11803</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>12064</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>11901</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>12733</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>12076</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>13137</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>9335</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>13607</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>15528</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>15231</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>14461</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>14188</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>13805</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>13212</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>13330</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>12819</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>12089</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>11833</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>11453</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>11305</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>9761</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>12356</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>10372</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>12114</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>11718</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>11431</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>9603</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>10930</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>10565</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>10643</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>10426</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>10147</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>10239</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>9372</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>10781</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>10875</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>11027</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>11357</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>11389</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>11152</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>11366</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>11767</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>11773</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>12102</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>12046</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>12342</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>14308</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>9920</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>14685</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>17430</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>16355</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>15971</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>15087</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>13925</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>13753</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>12190</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>14367</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>13397</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>11310</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>12272</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>12639</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>11596</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>9821</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>11386</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>10974</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>9397</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>11259</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>10535</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>10514</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>10565</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>10467</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>10353</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>10542</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>10091</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>9046</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>10680</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>10498</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>10463</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>10869</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>11177</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>10885</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>10866</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>11588</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>11552</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>11289</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>11392</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>11687</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>12078</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>12649</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>12407</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>14487</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>13545</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>13283</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>12799</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>13222</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>13347</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>12877</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>12479</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>12396</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>12018</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>11797</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>11260</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>11445</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>11661</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>10243</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>12695</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>10361</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>11717</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>11653</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>9534</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>11461</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>10754</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>10807</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>10824</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>10512</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>10422</v>
       </c>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>10406</v>
       </c>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>10405</v>
       </c>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>10279</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>9478</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>10918</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>10892</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>10792</v>
       </c>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>10954</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>11113</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>11403</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>11625</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>11415</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>11567</v>
       </c>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>12177</v>
       </c>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>12146</v>
       </c>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>12472</v>
       </c>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>12455</v>
       </c>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -15169,11 +15169,11 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R295" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R298" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>12853</v>
       </c>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>13768</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>16020</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>14723</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>13429</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>13123</v>
       </c>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>12534</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>12412</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>12334</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -15904,17 +15904,17 @@
         <v>652</v>
       </c>
       <c r="P272">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="Q272">
         <v>312</v>
       </c>
       <c r="R272">
         <f t="shared" si="4"/>
-        <v>12414</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18">
+        <v>12415</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -15961,17 +15961,17 @@
         <v>675</v>
       </c>
       <c r="P273">
-        <v>1156</v>
+        <v>1198</v>
       </c>
       <c r="Q273">
         <v>324</v>
       </c>
       <c r="R273">
         <f t="shared" si="4"/>
-        <v>12499</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18">
+        <v>12541</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>12112</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>12507</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>18565</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>20929</v>
       </c>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>24691</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>24303</v>
       </c>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>20059</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>14428</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>16390</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>13839</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>11268</v>
       </c>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>12106</v>
       </c>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>11302</v>
       </c>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>11294</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>10412</v>
       </c>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>9941</v>
       </c>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>10096</v>
       </c>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>10159</v>
       </c>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>10262</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>10236</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>10592</v>
       </c>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -17238,8 +17238,51 @@
       <c r="D296">
         <v>34</v>
       </c>
-    </row>
-    <row r="297" spans="1:18">
+      <c r="E296">
+        <v>9631</v>
+      </c>
+      <c r="F296">
+        <v>479</v>
+      </c>
+      <c r="G296">
+        <v>1269</v>
+      </c>
+      <c r="H296">
+        <v>870</v>
+      </c>
+      <c r="I296">
+        <v>780</v>
+      </c>
+      <c r="J296">
+        <v>1028</v>
+      </c>
+      <c r="K296">
+        <v>1024</v>
+      </c>
+      <c r="L296">
+        <v>920</v>
+      </c>
+      <c r="M296">
+        <v>1608</v>
+      </c>
+      <c r="N296">
+        <v>1043</v>
+      </c>
+      <c r="O296">
+        <v>594</v>
+      </c>
+      <c r="P296">
+        <v>1046</v>
+      </c>
+      <c r="Q296">
+        <v>313</v>
+      </c>
+      <c r="R296">
+        <f t="shared" si="4"/>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -17252,8 +17295,51 @@
       <c r="D297">
         <v>35</v>
       </c>
-    </row>
-    <row r="298" spans="1:18">
+      <c r="E297">
+        <v>9032</v>
+      </c>
+      <c r="F297">
+        <v>455</v>
+      </c>
+      <c r="G297">
+        <v>1148</v>
+      </c>
+      <c r="H297">
+        <v>922</v>
+      </c>
+      <c r="I297">
+        <v>724</v>
+      </c>
+      <c r="J297">
+        <v>945</v>
+      </c>
+      <c r="K297">
+        <v>951</v>
+      </c>
+      <c r="L297">
+        <v>810</v>
+      </c>
+      <c r="M297">
+        <v>1511</v>
+      </c>
+      <c r="N297">
+        <v>959</v>
+      </c>
+      <c r="O297">
+        <v>591</v>
+      </c>
+      <c r="P297">
+        <v>1029</v>
+      </c>
+      <c r="Q297">
+        <v>303</v>
+      </c>
+      <c r="R297">
+        <f t="shared" si="4"/>
+        <v>10364</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -17266,8 +17352,51 @@
       <c r="D298">
         <v>36</v>
       </c>
-    </row>
-    <row r="299" spans="1:18">
+      <c r="E298">
+        <v>7739</v>
+      </c>
+      <c r="F298">
+        <v>431</v>
+      </c>
+      <c r="G298">
+        <v>1057</v>
+      </c>
+      <c r="H298">
+        <v>780</v>
+      </c>
+      <c r="I298">
+        <v>640</v>
+      </c>
+      <c r="J298">
+        <v>770</v>
+      </c>
+      <c r="K298">
+        <v>806</v>
+      </c>
+      <c r="L298">
+        <v>737</v>
+      </c>
+      <c r="M298">
+        <v>1208</v>
+      </c>
+      <c r="N298">
+        <v>803</v>
+      </c>
+      <c r="O298">
+        <v>488</v>
+      </c>
+      <c r="P298">
+        <v>1050</v>
+      </c>
+      <c r="Q298">
+        <v>234</v>
+      </c>
+      <c r="R298">
+        <f t="shared" si="4"/>
+        <v>9023</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -17281,7 +17410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -17295,7 +17424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -17309,7 +17438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -17323,7 +17452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -17337,7 +17466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -17351,7 +17480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -17365,7 +17494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -17379,7 +17508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -17393,7 +17522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -17407,7 +17536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -17421,7 +17550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -17435,7 +17564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -17449,7 +17578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -17463,7 +17592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -17477,7 +17606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -17491,7 +17620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B342E-3C43-4444-A84A-08D1360DBE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F0EF81-6429-3848-90C1-6D282A1432B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="600" windowWidth="18940" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="600" windowWidth="22740" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,12 +406,12 @@
       <pane xSplit="4" ySplit="1" topLeftCell="J285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N294" sqref="N294"/>
+      <selection pane="bottomRight" activeCell="R296" sqref="R296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -524,7 +524,7 @@
         <v>13491</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -581,7 +581,7 @@
         <v>17755</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -638,7 +638,7 @@
         <v>16958</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -695,7 +695,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -752,7 +752,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>13672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -866,7 +866,7 @@
         <v>13494</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -923,7 +923,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -980,7 +980,7 @@
         <v>13193</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>13122</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>12467</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>12079</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>11965</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>10454</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>11424</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>13159</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>11577</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>10235</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>11609</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>11398</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>9510</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>10927</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>10537</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>10017</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>10086</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>9864</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>10095</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>10427</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>10339</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>9070</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>10559</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>10370</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>10817</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>10702</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>11088</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>10838</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>10973</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>10891</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>11401</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>11263</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>11227</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>11155</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>11774</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>11701</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>12091</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>8699</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>14480</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>13154</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>13060</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>12571</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>12697</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>12016</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>12718</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>12733</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>12489</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>10983</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>11738</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>13060</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>12757</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>12310</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>11795</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>11222</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>11013</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>9192</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>10611</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>10526</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>10412</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>10672</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>10433</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>10439</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10637</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>9226</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>10681</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>10183</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>10671</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>11016</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>11463</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>11803</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>12064</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>11901</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>12733</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>12076</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>13137</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>9335</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>13607</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>15528</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>15231</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>14461</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>14188</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>13805</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>13212</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>13330</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>12819</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>12580</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>12089</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>11833</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>11453</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>11305</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>9761</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>12356</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>10372</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>12114</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>11718</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>11431</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>9603</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>10930</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>10565</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>10643</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>10426</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>10147</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>10239</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>9372</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>10781</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>10875</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>11027</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>11357</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>11389</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>11152</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>11366</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>11767</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>11773</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>12102</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>12046</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>12342</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>14308</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>9920</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>14685</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>17430</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>16355</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>15971</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>15087</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>13925</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>13753</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>12190</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>14367</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>13397</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>11310</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>12272</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>12639</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>11596</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>11538</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>9821</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>11386</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>10974</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>9397</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>11259</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>10535</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>10514</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>10565</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>10467</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>10353</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>10356</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>10542</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>10091</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>9046</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>10680</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>10498</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>10463</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>10869</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>11048</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>11177</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>10885</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>10866</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>11588</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>11552</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>11289</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>11392</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>11687</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>12078</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>12649</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>12407</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>14487</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>13545</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>13283</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>12799</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>13222</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>13347</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>12877</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>12479</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>12396</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>12018</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>11797</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>11260</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>11445</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>11661</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>10243</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>12695</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>10361</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>11717</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>11653</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>9534</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>11461</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>10754</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>10807</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>10824</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>10512</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>10422</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>10406</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>10405</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>10279</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>9478</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>10918</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>10892</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>10792</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>10954</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>11113</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>11403</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>11625</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>11415</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>11567</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>12177</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>12146</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>12472</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>12455</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -15169,11 +15169,11 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R298" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R303" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>12853</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>13566</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>13768</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>16020</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>14723</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>13429</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>13123</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>12534</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>12412</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>12334</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>12541</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>12112</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>12507</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>18565</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>20929</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>24691</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>24303</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>20059</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>14428</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>16390</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>13839</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>11268</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>12106</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>11302</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>11294</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>10412</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>9941</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>10096</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>10159</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>10262</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>10236</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>10592</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>10990</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>10364</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>9023</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -17409,8 +17409,51 @@
       <c r="D299">
         <v>37</v>
       </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E299">
+        <v>9811</v>
+      </c>
+      <c r="F299">
+        <v>502</v>
+      </c>
+      <c r="G299">
+        <v>1229</v>
+      </c>
+      <c r="H299">
+        <v>952</v>
+      </c>
+      <c r="I299">
+        <v>867</v>
+      </c>
+      <c r="J299">
+        <v>1021</v>
+      </c>
+      <c r="K299">
+        <v>1052</v>
+      </c>
+      <c r="L299">
+        <v>898</v>
+      </c>
+      <c r="M299">
+        <v>1610</v>
+      </c>
+      <c r="N299">
+        <v>1084</v>
+      </c>
+      <c r="O299">
+        <v>578</v>
+      </c>
+      <c r="P299">
+        <v>1069</v>
+      </c>
+      <c r="Q299">
+        <v>296</v>
+      </c>
+      <c r="R299">
+        <f t="shared" si="4"/>
+        <v>11176</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -17423,8 +17466,51 @@
       <c r="D300">
         <v>38</v>
       </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E300">
+        <v>9523</v>
+      </c>
+      <c r="F300">
+        <v>465</v>
+      </c>
+      <c r="G300">
+        <v>1287</v>
+      </c>
+      <c r="H300">
+        <v>939</v>
+      </c>
+      <c r="I300">
+        <v>795</v>
+      </c>
+      <c r="J300">
+        <v>1051</v>
+      </c>
+      <c r="K300">
+        <v>1023</v>
+      </c>
+      <c r="L300">
+        <v>844</v>
+      </c>
+      <c r="M300">
+        <v>1530</v>
+      </c>
+      <c r="N300">
+        <v>1021</v>
+      </c>
+      <c r="O300">
+        <v>555</v>
+      </c>
+      <c r="P300">
+        <v>952</v>
+      </c>
+      <c r="Q300">
+        <v>322</v>
+      </c>
+      <c r="R300">
+        <f t="shared" si="4"/>
+        <v>10797</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -17437,8 +17523,51 @@
       <c r="D301">
         <v>39</v>
       </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E301">
+        <v>9634</v>
+      </c>
+      <c r="F301">
+        <v>514</v>
+      </c>
+      <c r="G301">
+        <v>1271</v>
+      </c>
+      <c r="H301">
+        <v>965</v>
+      </c>
+      <c r="I301">
+        <v>825</v>
+      </c>
+      <c r="J301">
+        <v>1036</v>
+      </c>
+      <c r="K301">
+        <v>963</v>
+      </c>
+      <c r="L301">
+        <v>869</v>
+      </c>
+      <c r="M301">
+        <v>1521</v>
+      </c>
+      <c r="N301">
+        <v>1041</v>
+      </c>
+      <c r="O301">
+        <v>617</v>
+      </c>
+      <c r="P301">
+        <v>933</v>
+      </c>
+      <c r="Q301">
+        <v>323</v>
+      </c>
+      <c r="R301">
+        <f t="shared" si="4"/>
+        <v>10890</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -17451,8 +17580,51 @@
       <c r="D302">
         <v>40</v>
       </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E302">
+        <v>9945</v>
+      </c>
+      <c r="F302">
+        <v>558</v>
+      </c>
+      <c r="G302">
+        <v>1301</v>
+      </c>
+      <c r="H302">
+        <v>978</v>
+      </c>
+      <c r="I302">
+        <v>842</v>
+      </c>
+      <c r="J302">
+        <v>1045</v>
+      </c>
+      <c r="K302">
+        <v>1054</v>
+      </c>
+      <c r="L302">
+        <v>899</v>
+      </c>
+      <c r="M302">
+        <v>1577</v>
+      </c>
+      <c r="N302">
+        <v>1003</v>
+      </c>
+      <c r="O302">
+        <v>671</v>
+      </c>
+      <c r="P302">
+        <v>1194</v>
+      </c>
+      <c r="Q302">
+        <v>328</v>
+      </c>
+      <c r="R302">
+        <f t="shared" si="4"/>
+        <v>11467</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -17465,8 +17637,51 @@
       <c r="D303">
         <v>41</v>
       </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E303">
+        <v>9954</v>
+      </c>
+      <c r="F303">
+        <v>544</v>
+      </c>
+      <c r="G303">
+        <v>1367</v>
+      </c>
+      <c r="H303">
+        <v>1067</v>
+      </c>
+      <c r="I303">
+        <v>884</v>
+      </c>
+      <c r="J303">
+        <v>1053</v>
+      </c>
+      <c r="K303">
+        <v>1019</v>
+      </c>
+      <c r="L303">
+        <v>902</v>
+      </c>
+      <c r="M303">
+        <v>1462</v>
+      </c>
+      <c r="N303">
+        <v>1010</v>
+      </c>
+      <c r="O303">
+        <v>638</v>
+      </c>
+      <c r="P303">
+        <v>1065</v>
+      </c>
+      <c r="Q303">
+        <v>348</v>
+      </c>
+      <c r="R303">
+        <f t="shared" si="4"/>
+        <v>11367</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -17480,7 +17695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -17494,7 +17709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -17508,7 +17723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -17522,7 +17737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -17536,7 +17751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -17550,7 +17765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -17564,7 +17779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -17578,7 +17793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -17592,7 +17807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -17606,7 +17821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -17620,7 +17835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F0EF81-6429-3848-90C1-6D282A1432B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727D7C2-4EA8-674C-A04B-6705D243E5DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="600" windowWidth="22740" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,10 +403,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R296" sqref="R296"/>
+      <selection pane="bottomRight" activeCell="M285" sqref="M285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R303" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R308" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -17614,14 +17614,14 @@
         <v>671</v>
       </c>
       <c r="P302">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="Q302">
         <v>328</v>
       </c>
       <c r="R302">
         <f t="shared" si="4"/>
-        <v>11467</v>
+        <v>11469</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -17671,14 +17671,14 @@
         <v>638</v>
       </c>
       <c r="P303">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="Q303">
         <v>348</v>
       </c>
       <c r="R303">
         <f t="shared" si="4"/>
-        <v>11367</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -17694,8 +17694,51 @@
       <c r="D304">
         <v>42</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304">
+        <v>10534</v>
+      </c>
+      <c r="F304">
+        <v>606</v>
+      </c>
+      <c r="G304">
+        <v>1553</v>
+      </c>
+      <c r="H304">
+        <v>1001</v>
+      </c>
+      <c r="I304">
+        <v>904</v>
+      </c>
+      <c r="J304">
+        <v>1154</v>
+      </c>
+      <c r="K304">
+        <v>1056</v>
+      </c>
+      <c r="L304">
+        <v>923</v>
+      </c>
+      <c r="M304">
+        <v>1462</v>
+      </c>
+      <c r="N304">
+        <v>1174</v>
+      </c>
+      <c r="O304">
+        <v>688</v>
+      </c>
+      <c r="P304">
+        <v>1131</v>
+      </c>
+      <c r="Q304">
+        <v>278</v>
+      </c>
+      <c r="R304">
+        <f t="shared" si="4"/>
+        <v>11943</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -17708,8 +17751,51 @@
       <c r="D305">
         <v>43</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305">
+        <v>10739</v>
+      </c>
+      <c r="F305">
+        <v>600</v>
+      </c>
+      <c r="G305">
+        <v>1714</v>
+      </c>
+      <c r="H305">
+        <v>1111</v>
+      </c>
+      <c r="I305">
+        <v>891</v>
+      </c>
+      <c r="J305">
+        <v>1124</v>
+      </c>
+      <c r="K305">
+        <v>1154</v>
+      </c>
+      <c r="L305">
+        <v>922</v>
+      </c>
+      <c r="M305">
+        <v>1510</v>
+      </c>
+      <c r="N305">
+        <v>1044</v>
+      </c>
+      <c r="O305">
+        <v>661</v>
+      </c>
+      <c r="P305">
+        <v>1187</v>
+      </c>
+      <c r="Q305">
+        <v>391</v>
+      </c>
+      <c r="R305">
+        <f t="shared" si="4"/>
+        <v>12317</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -17722,8 +17808,51 @@
       <c r="D306">
         <v>44</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306">
+        <v>10887</v>
+      </c>
+      <c r="F306">
+        <v>591</v>
+      </c>
+      <c r="G306">
+        <v>1754</v>
+      </c>
+      <c r="H306">
+        <v>1168</v>
+      </c>
+      <c r="I306">
+        <v>882</v>
+      </c>
+      <c r="J306">
+        <v>1102</v>
+      </c>
+      <c r="K306">
+        <v>1089</v>
+      </c>
+      <c r="L306">
+        <v>888</v>
+      </c>
+      <c r="M306">
+        <v>1563</v>
+      </c>
+      <c r="N306">
+        <v>1129</v>
+      </c>
+      <c r="O306">
+        <v>712</v>
+      </c>
+      <c r="P306">
+        <v>1262</v>
+      </c>
+      <c r="Q306">
+        <v>368</v>
+      </c>
+      <c r="R306">
+        <f t="shared" si="4"/>
+        <v>12517</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -17736,8 +17865,51 @@
       <c r="D307">
         <v>45</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307">
+        <v>11812</v>
+      </c>
+      <c r="F307">
+        <v>675</v>
+      </c>
+      <c r="G307">
+        <v>1900</v>
+      </c>
+      <c r="H307">
+        <v>1294</v>
+      </c>
+      <c r="I307">
+        <v>990</v>
+      </c>
+      <c r="J307">
+        <v>1186</v>
+      </c>
+      <c r="K307">
+        <v>1177</v>
+      </c>
+      <c r="L307">
+        <v>952</v>
+      </c>
+      <c r="M307">
+        <v>1614</v>
+      </c>
+      <c r="N307">
+        <v>1174</v>
+      </c>
+      <c r="O307">
+        <v>832</v>
+      </c>
+      <c r="P307">
+        <v>1250</v>
+      </c>
+      <c r="Q307">
+        <v>386</v>
+      </c>
+      <c r="R307">
+        <f t="shared" si="4"/>
+        <v>13448</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -17750,8 +17922,51 @@
       <c r="D308">
         <v>46</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308">
+        <v>12254</v>
+      </c>
+      <c r="F308">
+        <v>711</v>
+      </c>
+      <c r="G308">
+        <v>1950</v>
+      </c>
+      <c r="H308">
+        <v>1350</v>
+      </c>
+      <c r="I308">
+        <v>1099</v>
+      </c>
+      <c r="J308">
+        <v>1317</v>
+      </c>
+      <c r="K308">
+        <v>1172</v>
+      </c>
+      <c r="L308">
+        <v>1112</v>
+      </c>
+      <c r="M308">
+        <v>1616</v>
+      </c>
+      <c r="N308">
+        <v>1168</v>
+      </c>
+      <c r="O308">
+        <v>742</v>
+      </c>
+      <c r="P308">
+        <v>1338</v>
+      </c>
+      <c r="Q308">
+        <v>406</v>
+      </c>
+      <c r="R308">
+        <f t="shared" si="4"/>
+        <v>13998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -17765,7 +17980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:18">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -17779,7 +17994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:18">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -17793,7 +18008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:18">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -17807,7 +18022,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:18">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -17821,7 +18036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:18">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -17835,7 +18050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:18">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727D7C2-4EA8-674C-A04B-6705D243E5DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064B4AAE-7233-9A4B-B589-AE4E0625EC27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="600" windowWidth="22740" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="4400" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
   <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M285" sqref="M285"/>
+      <selection pane="bottomRight" activeCell="P306" sqref="P306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15169,7 +15169,7 @@
         <v>351</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R308" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R313" si="4">SUM(E259,P259:Q259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
         <v>25</v>
       </c>
       <c r="E287">
-        <v>9939</v>
+        <v>9339</v>
       </c>
       <c r="F287">
         <v>498</v>
@@ -16766,7 +16766,7 @@
       </c>
       <c r="R287">
         <f t="shared" si="4"/>
-        <v>11294</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -17329,14 +17329,14 @@
         <v>591</v>
       </c>
       <c r="P297">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="Q297">
         <v>303</v>
       </c>
       <c r="R297">
         <f t="shared" si="4"/>
-        <v>10364</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -17728,14 +17728,14 @@
         <v>688</v>
       </c>
       <c r="P304">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="Q304">
         <v>278</v>
       </c>
       <c r="R304">
         <f t="shared" si="4"/>
-        <v>11943</v>
+        <v>11946</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -17979,6 +17979,49 @@
       <c r="D309">
         <v>47</v>
       </c>
+      <c r="E309">
+        <v>12535</v>
+      </c>
+      <c r="F309">
+        <v>691</v>
+      </c>
+      <c r="G309">
+        <v>1935</v>
+      </c>
+      <c r="H309">
+        <v>1441</v>
+      </c>
+      <c r="I309">
+        <v>1105</v>
+      </c>
+      <c r="J309">
+        <v>1385</v>
+      </c>
+      <c r="K309">
+        <v>1186</v>
+      </c>
+      <c r="L309">
+        <v>1086</v>
+      </c>
+      <c r="M309">
+        <v>1687</v>
+      </c>
+      <c r="N309">
+        <v>1159</v>
+      </c>
+      <c r="O309">
+        <v>848</v>
+      </c>
+      <c r="P309">
+        <v>1360</v>
+      </c>
+      <c r="Q309">
+        <v>396</v>
+      </c>
+      <c r="R309">
+        <f t="shared" si="4"/>
+        <v>14291</v>
+      </c>
     </row>
     <row r="310" spans="1:18">
       <c r="A310" t="s">
@@ -17993,6 +18036,49 @@
       <c r="D310">
         <v>48</v>
       </c>
+      <c r="E310">
+        <v>12456</v>
+      </c>
+      <c r="F310">
+        <v>679</v>
+      </c>
+      <c r="G310">
+        <v>1791</v>
+      </c>
+      <c r="H310">
+        <v>1501</v>
+      </c>
+      <c r="I310">
+        <v>1218</v>
+      </c>
+      <c r="J310">
+        <v>1358</v>
+      </c>
+      <c r="K310">
+        <v>1159</v>
+      </c>
+      <c r="L310">
+        <v>1012</v>
+      </c>
+      <c r="M310">
+        <v>1655</v>
+      </c>
+      <c r="N310">
+        <v>1272</v>
+      </c>
+      <c r="O310">
+        <v>797</v>
+      </c>
+      <c r="P310">
+        <v>1328</v>
+      </c>
+      <c r="Q310">
+        <v>348</v>
+      </c>
+      <c r="R310">
+        <f t="shared" si="4"/>
+        <v>14132</v>
+      </c>
     </row>
     <row r="311" spans="1:18">
       <c r="A311" t="s">
@@ -18007,6 +18093,49 @@
       <c r="D311">
         <v>49</v>
       </c>
+      <c r="E311">
+        <v>12303</v>
+      </c>
+      <c r="F311">
+        <v>645</v>
+      </c>
+      <c r="G311">
+        <v>1679</v>
+      </c>
+      <c r="H311">
+        <v>1403</v>
+      </c>
+      <c r="I311">
+        <v>1121</v>
+      </c>
+      <c r="J311">
+        <v>1340</v>
+      </c>
+      <c r="K311">
+        <v>1229</v>
+      </c>
+      <c r="L311">
+        <v>1029</v>
+      </c>
+      <c r="M311">
+        <v>1720</v>
+      </c>
+      <c r="N311">
+        <v>1284</v>
+      </c>
+      <c r="O311">
+        <v>836</v>
+      </c>
+      <c r="P311">
+        <v>1296</v>
+      </c>
+      <c r="Q311">
+        <v>387</v>
+      </c>
+      <c r="R311">
+        <f t="shared" si="4"/>
+        <v>13986</v>
+      </c>
     </row>
     <row r="312" spans="1:18">
       <c r="A312" t="s">
@@ -18021,6 +18150,49 @@
       <c r="D312">
         <v>50</v>
       </c>
+      <c r="E312">
+        <v>12292</v>
+      </c>
+      <c r="F312">
+        <v>661</v>
+      </c>
+      <c r="G312">
+        <v>1691</v>
+      </c>
+      <c r="H312">
+        <v>1326</v>
+      </c>
+      <c r="I312">
+        <v>1199</v>
+      </c>
+      <c r="J312">
+        <v>1432</v>
+      </c>
+      <c r="K312">
+        <v>1224</v>
+      </c>
+      <c r="L312">
+        <v>1065</v>
+      </c>
+      <c r="M312">
+        <v>1706</v>
+      </c>
+      <c r="N312">
+        <v>1156</v>
+      </c>
+      <c r="O312">
+        <v>814</v>
+      </c>
+      <c r="P312">
+        <v>1283</v>
+      </c>
+      <c r="Q312">
+        <v>366</v>
+      </c>
+      <c r="R312">
+        <f t="shared" si="4"/>
+        <v>13941</v>
+      </c>
     </row>
     <row r="313" spans="1:18">
       <c r="A313" t="s">
@@ -18034,6 +18206,49 @@
       </c>
       <c r="D313">
         <v>51</v>
+      </c>
+      <c r="E313">
+        <v>13011</v>
+      </c>
+      <c r="F313">
+        <v>689</v>
+      </c>
+      <c r="G313">
+        <v>1718</v>
+      </c>
+      <c r="H313">
+        <v>1380</v>
+      </c>
+      <c r="I313">
+        <v>1199</v>
+      </c>
+      <c r="J313">
+        <v>1385</v>
+      </c>
+      <c r="K313">
+        <v>1317</v>
+      </c>
+      <c r="L313">
+        <v>1167</v>
+      </c>
+      <c r="M313">
+        <v>1947</v>
+      </c>
+      <c r="N313">
+        <v>1311</v>
+      </c>
+      <c r="O313">
+        <v>882</v>
+      </c>
+      <c r="P313">
+        <v>1282</v>
+      </c>
+      <c r="Q313">
+        <v>350</v>
+      </c>
+      <c r="R313">
+        <f t="shared" si="4"/>
+        <v>14643</v>
       </c>
     </row>
     <row r="314" spans="1:18">

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38307AB-1B81-904C-B282-0C27384F6759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EFC3FC-C6F1-FA4A-801E-A42FD5904CD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="5080" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="5500" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S316"/>
+  <dimension ref="A1:S318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D290" sqref="D290"/>
+      <selection pane="bottomRight" activeCell="S311" sqref="S311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15959,7 +15959,7 @@
         <v>351</v>
       </c>
       <c r="S259">
-        <f t="shared" ref="S259:S316" si="4">SUM(F259,Q259:R259)</f>
+        <f t="shared" ref="S259:S318" si="4">SUM(F259,Q259:R259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -19373,14 +19373,134 @@
         <v>1198</v>
       </c>
       <c r="Q316">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="R316">
         <v>568</v>
       </c>
       <c r="S316">
         <f t="shared" si="4"/>
-        <v>20038</v>
+        <v>20039</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19">
+      <c r="A317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C317" s="1">
+        <v>44211</v>
+      </c>
+      <c r="D317" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+      <c r="F317">
+        <v>18042</v>
+      </c>
+      <c r="G317">
+        <v>797</v>
+      </c>
+      <c r="H317">
+        <v>2112</v>
+      </c>
+      <c r="I317">
+        <v>1408</v>
+      </c>
+      <c r="J317">
+        <v>1402</v>
+      </c>
+      <c r="K317">
+        <v>1820</v>
+      </c>
+      <c r="L317">
+        <v>2240</v>
+      </c>
+      <c r="M317">
+        <v>2346</v>
+      </c>
+      <c r="N317">
+        <v>3127</v>
+      </c>
+      <c r="O317">
+        <v>1593</v>
+      </c>
+      <c r="P317">
+        <v>1170</v>
+      </c>
+      <c r="Q317">
+        <v>1550</v>
+      </c>
+      <c r="R317">
+        <v>443</v>
+      </c>
+      <c r="S317">
+        <f t="shared" si="4"/>
+        <v>20035</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19">
+      <c r="A318" t="s">
+        <v>17</v>
+      </c>
+      <c r="B318" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C318" s="1">
+        <v>44218</v>
+      </c>
+      <c r="D318" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+      <c r="F318">
+        <v>18676</v>
+      </c>
+      <c r="G318">
+        <v>836</v>
+      </c>
+      <c r="H318">
+        <v>2202</v>
+      </c>
+      <c r="I318">
+        <v>1426</v>
+      </c>
+      <c r="J318">
+        <v>1496</v>
+      </c>
+      <c r="K318">
+        <v>1925</v>
+      </c>
+      <c r="L318">
+        <v>2267</v>
+      </c>
+      <c r="M318">
+        <v>2417</v>
+      </c>
+      <c r="N318">
+        <v>3328</v>
+      </c>
+      <c r="O318">
+        <v>1670</v>
+      </c>
+      <c r="P318">
+        <v>1077</v>
+      </c>
+      <c r="Q318">
+        <v>1543</v>
+      </c>
+      <c r="R318">
+        <v>474</v>
+      </c>
+      <c r="S318">
+        <f t="shared" si="4"/>
+        <v>20693</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EFC3FC-C6F1-FA4A-801E-A42FD5904CD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE40E8-0507-A348-9F55-73CD02D028B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="5500" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S318"/>
+  <dimension ref="A1:S322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S311" sqref="S311"/>
+      <selection pane="bottomRight" activeCell="S314" sqref="S314:S322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15959,7 +15959,7 @@
         <v>351</v>
       </c>
       <c r="S259">
-        <f t="shared" ref="S259:S318" si="4">SUM(F259,Q259:R259)</f>
+        <f t="shared" ref="S259:S322" si="4">SUM(F259,Q259:R259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -19493,14 +19493,254 @@
         <v>1077</v>
       </c>
       <c r="Q318">
-        <v>1543</v>
+        <v>1559</v>
       </c>
       <c r="R318">
         <v>474</v>
       </c>
       <c r="S318">
         <f t="shared" si="4"/>
-        <v>20693</v>
+        <v>20709</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19">
+      <c r="A319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C319" s="1">
+        <v>44225</v>
+      </c>
+      <c r="D319" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E319">
+        <v>4</v>
+      </c>
+      <c r="F319">
+        <v>18448</v>
+      </c>
+      <c r="G319">
+        <v>752</v>
+      </c>
+      <c r="H319">
+        <v>2191</v>
+      </c>
+      <c r="I319">
+        <v>1485</v>
+      </c>
+      <c r="J319">
+        <v>1403</v>
+      </c>
+      <c r="K319">
+        <v>1926</v>
+      </c>
+      <c r="L319">
+        <v>2350</v>
+      </c>
+      <c r="M319">
+        <v>2302</v>
+      </c>
+      <c r="N319">
+        <v>3271</v>
+      </c>
+      <c r="O319">
+        <v>1775</v>
+      </c>
+      <c r="P319">
+        <v>974</v>
+      </c>
+      <c r="Q319">
+        <v>1604</v>
+      </c>
+      <c r="R319">
+        <v>437</v>
+      </c>
+      <c r="S319">
+        <f t="shared" si="4"/>
+        <v>20489</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19">
+      <c r="A320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" s="1">
+        <v>44226</v>
+      </c>
+      <c r="C320" s="1">
+        <v>44232</v>
+      </c>
+      <c r="D320" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E320">
+        <v>5</v>
+      </c>
+      <c r="F320">
+        <v>17192</v>
+      </c>
+      <c r="G320">
+        <v>742</v>
+      </c>
+      <c r="H320">
+        <v>2162</v>
+      </c>
+      <c r="I320">
+        <v>1326</v>
+      </c>
+      <c r="J320">
+        <v>1406</v>
+      </c>
+      <c r="K320">
+        <v>1886</v>
+      </c>
+      <c r="L320">
+        <v>2166</v>
+      </c>
+      <c r="M320">
+        <v>1922</v>
+      </c>
+      <c r="N320">
+        <v>2941</v>
+      </c>
+      <c r="O320">
+        <v>1708</v>
+      </c>
+      <c r="P320">
+        <v>903</v>
+      </c>
+      <c r="Q320">
+        <v>1506</v>
+      </c>
+      <c r="R320">
+        <v>462</v>
+      </c>
+      <c r="S320">
+        <f t="shared" si="4"/>
+        <v>19160</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19">
+      <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321" s="1">
+        <v>44233</v>
+      </c>
+      <c r="C321" s="1">
+        <v>44239</v>
+      </c>
+      <c r="D321" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E321">
+        <v>6</v>
+      </c>
+      <c r="F321">
+        <v>15354</v>
+      </c>
+      <c r="G321">
+        <v>763</v>
+      </c>
+      <c r="H321">
+        <v>2002</v>
+      </c>
+      <c r="I321">
+        <v>1274</v>
+      </c>
+      <c r="J321">
+        <v>1456</v>
+      </c>
+      <c r="K321">
+        <v>1670</v>
+      </c>
+      <c r="L321">
+        <v>1866</v>
+      </c>
+      <c r="M321">
+        <v>1545</v>
+      </c>
+      <c r="N321">
+        <v>2446</v>
+      </c>
+      <c r="O321">
+        <v>1550</v>
+      </c>
+      <c r="P321">
+        <v>760</v>
+      </c>
+      <c r="Q321">
+        <v>1412</v>
+      </c>
+      <c r="R321">
+        <v>382</v>
+      </c>
+      <c r="S321">
+        <f t="shared" si="4"/>
+        <v>17148</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
+      <c r="A322" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" s="1">
+        <v>44240</v>
+      </c>
+      <c r="C322" s="1">
+        <v>44246</v>
+      </c>
+      <c r="D322" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E322">
+        <v>7</v>
+      </c>
+      <c r="F322">
+        <v>13809</v>
+      </c>
+      <c r="G322">
+        <v>677</v>
+      </c>
+      <c r="H322">
+        <v>1920</v>
+      </c>
+      <c r="I322">
+        <v>1261</v>
+      </c>
+      <c r="J322">
+        <v>1244</v>
+      </c>
+      <c r="K322">
+        <v>1592</v>
+      </c>
+      <c r="L322">
+        <v>1581</v>
+      </c>
+      <c r="M322">
+        <v>1367</v>
+      </c>
+      <c r="N322">
+        <v>2047</v>
+      </c>
+      <c r="O322">
+        <v>1306</v>
+      </c>
+      <c r="P322">
+        <v>787</v>
+      </c>
+      <c r="Q322">
+        <v>1422</v>
+      </c>
+      <c r="R322">
+        <v>352</v>
+      </c>
+      <c r="S322">
+        <f t="shared" si="4"/>
+        <v>15583</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE40E8-0507-A348-9F55-73CD02D028B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE197D-26F5-D948-B446-553EC0E53341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="5500" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="4820" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S322"/>
+  <dimension ref="A1:S328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F295" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S314" sqref="S314:S322"/>
+      <selection pane="bottomRight" activeCell="Q319" sqref="Q319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15959,7 +15959,7 @@
         <v>351</v>
       </c>
       <c r="S259">
-        <f t="shared" ref="S259:S322" si="4">SUM(F259,Q259:R259)</f>
+        <f t="shared" ref="S259:S323" si="4">SUM(F259,Q259:R259)</f>
         <v>12275</v>
       </c>
     </row>
@@ -19741,6 +19741,366 @@
       <c r="S322">
         <f t="shared" si="4"/>
         <v>15583</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19">
+      <c r="A323" t="s">
+        <v>17</v>
+      </c>
+      <c r="B323" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C323" s="1">
+        <v>44253</v>
+      </c>
+      <c r="D323" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E323">
+        <v>8</v>
+      </c>
+      <c r="F323">
+        <v>12614</v>
+      </c>
+      <c r="G323">
+        <v>614</v>
+      </c>
+      <c r="H323">
+        <v>1659</v>
+      </c>
+      <c r="I323">
+        <v>1196</v>
+      </c>
+      <c r="J323">
+        <v>1092</v>
+      </c>
+      <c r="K323">
+        <v>1401</v>
+      </c>
+      <c r="L323">
+        <v>1403</v>
+      </c>
+      <c r="M323">
+        <v>1261</v>
+      </c>
+      <c r="N323">
+        <v>1988</v>
+      </c>
+      <c r="O323">
+        <v>1230</v>
+      </c>
+      <c r="P323">
+        <v>759</v>
+      </c>
+      <c r="Q323">
+        <v>1325</v>
+      </c>
+      <c r="R323">
+        <v>351</v>
+      </c>
+      <c r="S323">
+        <f t="shared" si="4"/>
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324" t="s">
+        <v>17</v>
+      </c>
+      <c r="B324" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C324" s="1">
+        <v>44260</v>
+      </c>
+      <c r="D324" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E324">
+        <v>9</v>
+      </c>
+      <c r="F324">
+        <v>11592</v>
+      </c>
+      <c r="G324">
+        <v>581</v>
+      </c>
+      <c r="H324">
+        <v>1564</v>
+      </c>
+      <c r="I324">
+        <v>1100</v>
+      </c>
+      <c r="J324">
+        <v>1091</v>
+      </c>
+      <c r="K324">
+        <v>1250</v>
+      </c>
+      <c r="L324">
+        <v>1309</v>
+      </c>
+      <c r="M324">
+        <v>1093</v>
+      </c>
+      <c r="N324">
+        <v>1703</v>
+      </c>
+      <c r="O324">
+        <v>1191</v>
+      </c>
+      <c r="P324">
+        <v>689</v>
+      </c>
+      <c r="Q324">
+        <v>1204</v>
+      </c>
+      <c r="R324">
+        <v>319</v>
+      </c>
+      <c r="S324">
+        <f t="shared" ref="S324:S328" si="5">SUM(F324,Q324:R324)</f>
+        <v>13115</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
+      <c r="A325" t="s">
+        <v>17</v>
+      </c>
+      <c r="B325" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C325" s="1">
+        <v>44267</v>
+      </c>
+      <c r="D325" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E325">
+        <v>10</v>
+      </c>
+      <c r="F325">
+        <v>10987</v>
+      </c>
+      <c r="G325">
+        <v>593</v>
+      </c>
+      <c r="H325">
+        <v>1472</v>
+      </c>
+      <c r="I325">
+        <v>1037</v>
+      </c>
+      <c r="J325">
+        <v>999</v>
+      </c>
+      <c r="K325">
+        <v>1182</v>
+      </c>
+      <c r="L325">
+        <v>1225</v>
+      </c>
+      <c r="M325">
+        <v>976</v>
+      </c>
+      <c r="N325">
+        <v>1632</v>
+      </c>
+      <c r="O325">
+        <v>1161</v>
+      </c>
+      <c r="P325">
+        <v>685</v>
+      </c>
+      <c r="Q325">
+        <v>1145</v>
+      </c>
+      <c r="R325">
+        <v>339</v>
+      </c>
+      <c r="S325">
+        <f t="shared" si="5"/>
+        <v>12471</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
+      <c r="A326" t="s">
+        <v>17</v>
+      </c>
+      <c r="B326" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C326" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D326" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E326">
+        <v>11</v>
+      </c>
+      <c r="F326">
+        <v>10311</v>
+      </c>
+      <c r="G326">
+        <v>523</v>
+      </c>
+      <c r="H326">
+        <v>1457</v>
+      </c>
+      <c r="I326">
+        <v>1031</v>
+      </c>
+      <c r="J326">
+        <v>891</v>
+      </c>
+      <c r="K326">
+        <v>1101</v>
+      </c>
+      <c r="L326">
+        <v>1029</v>
+      </c>
+      <c r="M326">
+        <v>917</v>
+      </c>
+      <c r="N326">
+        <v>1609</v>
+      </c>
+      <c r="O326">
+        <v>1115</v>
+      </c>
+      <c r="P326">
+        <v>621</v>
+      </c>
+      <c r="Q326">
+        <v>1114</v>
+      </c>
+      <c r="R326">
+        <v>253</v>
+      </c>
+      <c r="S326">
+        <f t="shared" si="5"/>
+        <v>11678</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" t="s">
+        <v>17</v>
+      </c>
+      <c r="B327" s="1">
+        <v>44275</v>
+      </c>
+      <c r="C327" s="1">
+        <v>44281</v>
+      </c>
+      <c r="D327" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E327">
+        <v>12</v>
+      </c>
+      <c r="F327">
+        <v>10045</v>
+      </c>
+      <c r="G327">
+        <v>505</v>
+      </c>
+      <c r="H327">
+        <v>1365</v>
+      </c>
+      <c r="I327">
+        <v>1016</v>
+      </c>
+      <c r="J327">
+        <v>929</v>
+      </c>
+      <c r="K327">
+        <v>1075</v>
+      </c>
+      <c r="L327">
+        <v>988</v>
+      </c>
+      <c r="M327">
+        <v>914</v>
+      </c>
+      <c r="N327">
+        <v>1538</v>
+      </c>
+      <c r="O327">
+        <v>1051</v>
+      </c>
+      <c r="P327">
+        <v>651</v>
+      </c>
+      <c r="Q327">
+        <v>1097</v>
+      </c>
+      <c r="R327">
+        <v>307</v>
+      </c>
+      <c r="S327">
+        <f t="shared" si="5"/>
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" s="1">
+        <v>44282</v>
+      </c>
+      <c r="C328" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D328" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E328">
+        <v>13</v>
+      </c>
+      <c r="F328">
+        <v>8201</v>
+      </c>
+      <c r="G328">
+        <v>449</v>
+      </c>
+      <c r="H328">
+        <v>1125</v>
+      </c>
+      <c r="I328">
+        <v>848</v>
+      </c>
+      <c r="J328">
+        <v>655</v>
+      </c>
+      <c r="K328">
+        <v>881</v>
+      </c>
+      <c r="L328">
+        <v>841</v>
+      </c>
+      <c r="M328">
+        <v>741</v>
+      </c>
+      <c r="N328">
+        <v>1301</v>
+      </c>
+      <c r="O328">
+        <v>865</v>
+      </c>
+      <c r="P328">
+        <v>483</v>
+      </c>
+      <c r="Q328">
+        <v>972</v>
+      </c>
+      <c r="R328">
+        <v>288</v>
+      </c>
+      <c r="S328">
+        <f t="shared" si="5"/>
+        <v>9461</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/britain/britain_total_source_latest.xlsx
+++ b/source-data/britain/britain_total_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE197D-26F5-D948-B446-553EC0E53341}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B47BBE-8059-DA47-B84F-F3D07EA9841A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="4820" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15620" yWindow="5020" windowWidth="26480" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S328"/>
+  <dimension ref="A1:S332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F307" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q319" sqref="Q319"/>
+      <selection pane="bottomRight" activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19859,7 +19859,7 @@
         <v>319</v>
       </c>
       <c r="S324">
-        <f t="shared" ref="S324:S328" si="5">SUM(F324,Q324:R324)</f>
+        <f t="shared" ref="S324:S332" si="5">SUM(F324,Q324:R324)</f>
         <v>13115</v>
       </c>
     </row>
@@ -20101,6 +20101,246 @@
       <c r="S328">
         <f t="shared" si="5"/>
         <v>9461</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
+      <c r="A329" t="s">
+        <v>17</v>
+      </c>
+      <c r="B329" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C329" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D329" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E329">
+        <v>14</v>
+      </c>
+      <c r="F329">
+        <v>9098</v>
+      </c>
+      <c r="G329">
+        <v>504</v>
+      </c>
+      <c r="H329">
+        <v>1229</v>
+      </c>
+      <c r="I329">
+        <v>930</v>
+      </c>
+      <c r="J329">
+        <v>850</v>
+      </c>
+      <c r="K329">
+        <v>888</v>
+      </c>
+      <c r="L329">
+        <v>950</v>
+      </c>
+      <c r="M329">
+        <v>816</v>
+      </c>
+      <c r="N329">
+        <v>1374</v>
+      </c>
+      <c r="O329">
+        <v>971</v>
+      </c>
+      <c r="P329">
+        <v>576</v>
+      </c>
+      <c r="Q329">
+        <v>1058</v>
+      </c>
+      <c r="R329">
+        <v>245</v>
+      </c>
+      <c r="S329">
+        <f t="shared" si="5"/>
+        <v>10401</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
+      <c r="A330" t="s">
+        <v>17</v>
+      </c>
+      <c r="B330" s="1">
+        <v>44296</v>
+      </c>
+      <c r="C330" s="1">
+        <v>44302</v>
+      </c>
+      <c r="D330" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E330">
+        <v>15</v>
+      </c>
+      <c r="F330">
+        <v>10438</v>
+      </c>
+      <c r="G330">
+        <v>544</v>
+      </c>
+      <c r="H330">
+        <v>1351</v>
+      </c>
+      <c r="I330">
+        <v>1004</v>
+      </c>
+      <c r="J330">
+        <v>944</v>
+      </c>
+      <c r="K330">
+        <v>1073</v>
+      </c>
+      <c r="L330">
+        <v>1153</v>
+      </c>
+      <c r="M330">
+        <v>970</v>
+      </c>
+      <c r="N330">
+        <v>1634</v>
+      </c>
+      <c r="O330">
+        <v>1109</v>
+      </c>
+      <c r="P330">
+        <v>644</v>
+      </c>
+      <c r="Q330">
+        <v>1131</v>
+      </c>
+      <c r="R330">
+        <v>289</v>
+      </c>
+      <c r="S330">
+        <f t="shared" si="5"/>
+        <v>11858</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
+      <c r="A331" t="s">
+        <v>17</v>
+      </c>
+      <c r="B331" s="1">
+        <v>44303</v>
+      </c>
+      <c r="C331" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D331" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E331">
+        <v>16</v>
+      </c>
+      <c r="F331">
+        <v>9941</v>
+      </c>
+      <c r="G331">
+        <v>509</v>
+      </c>
+      <c r="H331">
+        <v>1345</v>
+      </c>
+      <c r="I331">
+        <v>1001</v>
+      </c>
+      <c r="J331">
+        <v>849</v>
+      </c>
+      <c r="K331">
+        <v>1057</v>
+      </c>
+      <c r="L331">
+        <v>1054</v>
+      </c>
+      <c r="M331">
+        <v>986</v>
+      </c>
+      <c r="N331">
+        <v>1469</v>
+      </c>
+      <c r="O331">
+        <v>1042</v>
+      </c>
+      <c r="P331">
+        <v>616</v>
+      </c>
+      <c r="Q331">
+        <v>1112</v>
+      </c>
+      <c r="R331">
+        <v>305</v>
+      </c>
+      <c r="S331">
+        <f t="shared" si="5"/>
+        <v>11358</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
+      <c r="A332" t="s">
+        <v>17</v>
+      </c>
+      <c r="B332" s="1">
+        <v>44310</v>
+      </c>
+      <c r="C332" s="1">
+        <v>44316</v>
+      </c>
+      <c r="D332" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E332">
+        <v>17</v>
+      </c>
+      <c r="F332">
+        <v>9692</v>
+      </c>
+      <c r="G332">
+        <v>501</v>
+      </c>
+      <c r="H332">
+        <v>1281</v>
+      </c>
+      <c r="I332">
+        <v>943</v>
+      </c>
+      <c r="J332">
+        <v>814</v>
+      </c>
+      <c r="K332">
+        <v>982</v>
+      </c>
+      <c r="L332">
+        <v>1062</v>
+      </c>
+      <c r="M332">
+        <v>908</v>
+      </c>
+      <c r="N332">
+        <v>1519</v>
+      </c>
+      <c r="O332">
+        <v>1084</v>
+      </c>
+      <c r="P332">
+        <v>582</v>
+      </c>
+      <c r="Q332">
+        <v>1035</v>
+      </c>
+      <c r="R332">
+        <v>291</v>
+      </c>
+      <c r="S332">
+        <f t="shared" si="5"/>
+        <v>11018</v>
       </c>
     </row>
   </sheetData>
